--- a/Divisione_compiti.xlsx
+++ b/Divisione_compiti.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Nome e Cognome</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Stefano Fumagalli Giuseppe Urso</t>
   </si>
   <si>
-    <t>Maps</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Gestione profilo</t>
   </si>
   <si>
@@ -66,6 +60,9 @@
   </si>
   <si>
     <t>Menù a scorrimento</t>
+  </si>
+  <si>
+    <t>Maps, Login</t>
   </si>
 </sst>
 </file>
@@ -114,10 +111,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -400,7 +397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -409,15 +408,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -425,51 +424,51 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
